--- a/RefactoringExelMoya.xlsx
+++ b/RefactoringExelMoya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Moya\Documents\Luis Angel\Espol\Septimo semestre\Diseño de Software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{27D13A1F-956C-41FF-B078-1DD8A8B1C2CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DBFE2D34-218E-4413-875C-D60FEB89FE56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{122B9872-7810-4D28-B032-B99758B7FF82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Long Method</t>
   </si>
@@ -42,9 +42,6 @@
     <t>TECNICA DE REFACTORIZACIÓN</t>
   </si>
   <si>
-    <t>ENLACE</t>
-  </si>
-  <si>
     <t>Español</t>
   </si>
   <si>
@@ -73,6 +70,54 @@
   </si>
   <si>
     <t>-Extract Class: hace referencia de que los metodos extensos de una clase puede dividirse en otras clases.                 -Extract Subclass: Hace referencia de que la clase extensa se puede implementar de distintas maneras.         -Extract Interface: Hace referencia a una lista de metodos que poseera la clase.</t>
+  </si>
+  <si>
+    <t>Primitive Obsession</t>
+  </si>
+  <si>
+    <t>Obsesión Primitiva</t>
+  </si>
+  <si>
+    <t>Data clumps</t>
+  </si>
+  <si>
+    <t>Switch statements</t>
+  </si>
+  <si>
+    <t>Refused Bequest</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Duplicate Code</t>
+  </si>
+  <si>
+    <t>Data Class</t>
+  </si>
+  <si>
+    <t>Feature envy</t>
+  </si>
+  <si>
+    <t>Inappropriate Intimacy</t>
+  </si>
+  <si>
+    <t>Shotgun Surgery</t>
+  </si>
+  <si>
+    <t>con las consideraciones necesarias para aplicar cada técnica y corregir el mal olor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se produce cuando informacion importante en el programa es declarada con un tipo de dato primitivo. </t>
+  </si>
+  <si>
+    <t>http://trainedchimpanzees.blogspot.com/2010/08/code-smells-obsesion-primitiva.html</t>
+  </si>
+  <si>
+    <t>- Replace Data Value with Object: Si se tiene una gran cantidad de atributos es mejor declarar una clase la cual los contenga.                                                            - Introduce Parameter Object: Si se tiene parametros los cuales comparten el tipos de datos se tendra que utilizar una clase que las contenga.                        - Si se tiene una matriz tambien se deberia crear un obejto para almacenarla.</t>
+  </si>
+  <si>
+    <t>ENLACE GIT</t>
   </si>
 </sst>
 </file>
@@ -116,9 +161,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -127,6 +169,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,51 +487,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001782D-0BB8-4B33-B08D-82D74B02D928}">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -494,104 +540,138 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/RefactoringExelMoya.xlsx
+++ b/RefactoringExelMoya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Moya\Documents\Luis Angel\Espol\Septimo semestre\Diseño de Software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DBFE2D34-218E-4413-875C-D60FEB89FE56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{73A5023E-4D86-4401-B668-E561BDFF6EF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{122B9872-7810-4D28-B032-B99758B7FF82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Long Method</t>
   </si>
@@ -114,10 +114,22 @@
     <t>http://trainedchimpanzees.blogspot.com/2010/08/code-smells-obsesion-primitiva.html</t>
   </si>
   <si>
-    <t>- Replace Data Value with Object: Si se tiene una gran cantidad de atributos es mejor declarar una clase la cual los contenga.                                                            - Introduce Parameter Object: Si se tiene parametros los cuales comparten el tipos de datos se tendra que utilizar una clase que las contenga.                        - Si se tiene una matriz tambien se deberia crear un obejto para almacenarla.</t>
-  </si>
-  <si>
     <t>ENLACE GIT</t>
+  </si>
+  <si>
+    <t>Grupos de datos</t>
+  </si>
+  <si>
+    <t>Se produce cuando varios parametros o atributos estan juntos a los largo del codigo, por lo general aparecen varias veces.</t>
+  </si>
+  <si>
+    <t>- Replace Data Value with Object: Si se tiene una gran cantidad de atributos es mejor declarar una clase la cual los contenga.                                                            - Introduce Parameter Object: Si se tiene parametros los cuales comparten el tipos de datos se tendra que utilizar una clase que las contenga.                                                        - Si se tiene una matriz tambien se deberia crear un obejto para almacenarla.</t>
+  </si>
+  <si>
+    <t>-Extract Class: hace referencia de que los metodos extensos de una clase puede dividirse en otras clases.          - Introduce Parameter Object: Si se tiene parametros los cuales comparten el tipos de datos se tendra que utilizar una clase que las contenga.                                                    - Preserve Whole Object: Hace referencia a pasar un objeto como parametro de un metodo.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Data_Clump_(Code_Smell)</t>
   </si>
 </sst>
 </file>
@@ -489,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001782D-0BB8-4B33-B08D-82D74B02D928}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -571,8 +583,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -582,25 +594,33 @@
         <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+    <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
@@ -610,7 +630,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -620,7 +640,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
@@ -630,7 +650,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
@@ -640,7 +660,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
@@ -650,7 +670,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
@@ -660,6 +680,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -669,6 +690,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
       <c r="C15" t="s">
         <v>25</v>
       </c>

--- a/RefactoringExelMoya.xlsx
+++ b/RefactoringExelMoya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Moya\Documents\Luis Angel\Espol\Septimo semestre\Diseño de Software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{73A5023E-4D86-4401-B668-E561BDFF6EF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9FE86B84-6A3A-43F3-9334-AE265C88B039}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{122B9872-7810-4D28-B032-B99758B7FF82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Long Method</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Data_Clump_(Code_Smell)</t>
+  </si>
+  <si>
+    <t>Declaraciones de cambio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El uso excesivo de bloques switch-case  y bloques if hace que el codigo sea dificil de agregar funcionalidades o corregir. </t>
+  </si>
+  <si>
+    <t>- Para coregir el uso excesivo de bloques if o case es necesario utilizar el polimorfismo.                                       -Es necesario Extraer metodo ya que existen funciones que son mayormente utilizadas por otras clases y no por la clase que la contiene.                                                    - Para evitar el bloque switch se puede utilizar subclases que ayude a definir el tipo de algun objeto (polimorfismo).</t>
   </si>
 </sst>
 </file>
@@ -165,25 +174,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,13 +507,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001782D-0BB8-4B33-B08D-82D74B02D928}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
@@ -516,184 +522,211 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/RefactoringExelMoya.xlsx
+++ b/RefactoringExelMoya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Moya\Documents\Luis Angel\Espol\Septimo semestre\Diseño de Software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9FE86B84-6A3A-43F3-9334-AE265C88B039}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{85551070-77F6-40FA-9D7E-E791A74FE2B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{122B9872-7810-4D28-B032-B99758B7FF82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Long Method</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>- Para coregir el uso excesivo de bloques if o case es necesario utilizar el polimorfismo.                                       -Es necesario Extraer metodo ya que existen funciones que son mayormente utilizadas por otras clases y no por la clase que la contiene.                                                    - Para evitar el bloque switch se puede utilizar subclases que ayude a definir el tipo de algun objeto (polimorfismo).</t>
+  </si>
+  <si>
+    <t>Legado Rechazado</t>
+  </si>
+  <si>
+    <t>MOYA LARREA LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>Ese produce cuando una clase hija no utiliza todo lo que el padre puede ofrecerle.</t>
+  </si>
+  <si>
+    <t>- Si una clase hija no utliza dichos metodos del padre lo mejor es eliminar la herencia.                                 -Si la herencia es apropiada se debera obtener los metodos o parametros que tendran en comun y colocarlos en una nueva clase.</t>
   </si>
 </sst>
 </file>
@@ -162,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,25 +182,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -505,22 +547,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001782D-0BB8-4B33-B08D-82D74B02D928}">
-  <dimension ref="B2:I15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -536,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -551,7 +603,7 @@
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -560,151 +612,159 @@
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
@@ -715,7 +775,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
@@ -726,14 +786,15 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/RefactoringExelMoya.xlsx
+++ b/RefactoringExelMoya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Moya\Documents\Luis Angel\Espol\Septimo semestre\Diseño de Software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B23D1F9-682A-468E-8E8F-5C3777C80AD9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{297D317E-0518-4972-A8C3-C4C092601765}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{122B9872-7810-4D28-B032-B99758B7FF82}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>MAL OLOR</t>
-  </si>
-  <si>
-    <t>CODE SMEEL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Long Method</t>
   </si>
@@ -40,25 +34,46 @@
   </si>
   <si>
     <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>TECNICA DE REFACTORIZACIÓN</t>
+  </si>
+  <si>
+    <t>ENLACE</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>Ingles</t>
+  </si>
+  <si>
+    <t>Un metodo contiene demaciadas lineas de codigo, los metodos deberian tener menos de 10 lineas.</t>
+  </si>
+  <si>
+    <t>BIBLIOGRAFIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Metodo de extracción: consiste en copiar parte del codigo y colocarlo en un nuevo metodo con un nombre descriptivo con respecto a su función.                                                 - Si el caso anterior no se cumple debido a que tenemos variables locales, necesitamos declarar esa variable dentro de un metodo (getter).                      -El hecho de tener ciclos o condicionales significa que ese codigo puede estar en un nuevo metodo ya que generan muchas lineas de codigo. </t>
+  </si>
+  <si>
+    <t>Mi autoria.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,9 +96,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,38 +424,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001782D-0BB8-4B33-B08D-82D74B02D928}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/RefactoringExelMoya.xlsx
+++ b/RefactoringExelMoya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Moya\Documents\Luis Angel\Espol\Septimo semestre\Diseño de Software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{85551070-77F6-40FA-9D7E-E791A74FE2B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A428EA76-2431-4EC3-838D-E68E3DA3C1BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{122B9872-7810-4D28-B032-B99758B7FF82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Long Method</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>- Si una clase hija no utliza dichos metodos del padre lo mejor es eliminar la herencia.                                 -Si la herencia es apropiada se debera obtener los metodos o parametros que tendran en comun y colocarlos en una nueva clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este Code Smell se produce cuando se agregan comentarios los cuales expresan todo lo que realiza el metodo ya que el codigo no se entiende a simple vista. </t>
+  </si>
+  <si>
+    <t>- Si se obtiene una expresion extensa debera dividirse en varias partes para poder captarla a simple vista.                         - Dividir el metodo y ponerle un nombre explicativo para evitar utilizar un comentario.                                                    -El metodo debe tener un metodo que represente a su funcion.</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
   </si>
 </sst>
 </file>
@@ -210,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -222,16 +231,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001782D-0BB8-4B33-B08D-82D74B02D928}">
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -558,7 +570,7 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -574,71 +586,71 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2"/>
@@ -647,145 +659,153 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="2"/>
     </row>
   </sheetData>

--- a/RefactoringExelMoya.xlsx
+++ b/RefactoringExelMoya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Moya\Documents\Luis Angel\Espol\Septimo semestre\Diseño de Software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A428EA76-2431-4EC3-838D-E68E3DA3C1BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{37BCC6DF-47A8-41A1-A0C5-2FA28D938B1D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{122B9872-7810-4D28-B032-B99758B7FF82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Long Method</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Shotgun Surgery</t>
   </si>
   <si>
-    <t>con las consideraciones necesarias para aplicar cada técnica y corregir el mal olor.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se produce cuando informacion importante en el programa es declarada con un tipo de dato primitivo. </t>
   </si>
   <si>
@@ -160,6 +157,36 @@
   </si>
   <si>
     <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Ocurre cuando dos o mas metodos poseen el mismo codigo.</t>
+  </si>
+  <si>
+    <t>- Si se tiene codigo repetido lo mejor es ese codigo hacerlo una funcion para poder llamarla las veces que queramos.       - Si dos clases tienen el mismo metodo lo recomendable es colocar ese metodo en una clase padre.                                     - Si dentro de los condicionales se repite el mismo metodo se tendra que colocarlo en la parte externa de dichos condicionales.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Duplicate_code</t>
+  </si>
+  <si>
+    <t>Codigo Duplicado</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Columna3</t>
+  </si>
+  <si>
+    <t>Columna4</t>
+  </si>
+  <si>
+    <t>Columna5</t>
+  </si>
+  <si>
+    <t>Columna6</t>
   </si>
 </sst>
 </file>
@@ -183,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -215,11 +242,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -228,28 +351,213 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -260,6 +568,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4A655B1-D14C-401F-AEEA-E4629DD8A28D}" name="Tabla1" displayName="Tabla1" ref="B2:G16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="B2:G16" xr:uid="{A353535F-3A55-4AAE-B5D2-9EC2A734294A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A108CF69-FC23-45B6-8481-40546EB6AE1A}" name="Columna1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{79BA20ED-2427-44B4-B538-FF27A975A335}" name="Columna2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{D0BACB97-D08D-4087-B1EB-6733B10D343A}" name="Columna3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F86C6687-E4AC-4264-9907-62EB9FF7B20F}" name="Columna4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{231770CD-AE49-4C5E-9798-F44E2719F679}" name="Columna5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{949C35AE-7AAD-4CA6-82FB-EA38882547D7}" name="Columna6" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001782D-0BB8-4B33-B08D-82D74B02D928}">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,252 +894,277 @@
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3" t="s">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+  <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/RefactoringExelMoya.xlsx
+++ b/RefactoringExelMoya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Moya\Documents\Luis Angel\Espol\Septimo semestre\Diseño de Software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{297D317E-0518-4972-A8C3-C4C092601765}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{27D13A1F-956C-41FF-B078-1DD8A8B1C2CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{122B9872-7810-4D28-B032-B99758B7FF82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Long Method</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Ingles</t>
   </si>
   <si>
-    <t>Un metodo contiene demaciadas lineas de codigo, los metodos deberian tener menos de 10 lineas.</t>
-  </si>
-  <si>
     <t>BIBLIOGRAFIA</t>
   </si>
   <si>
@@ -61,6 +58,21 @@
   </si>
   <si>
     <t>Mi autoria.</t>
+  </si>
+  <si>
+    <t>Long Class</t>
+  </si>
+  <si>
+    <t>Clase Larga</t>
+  </si>
+  <si>
+    <t>Un metodo contiene demasiadas lineas de codigo, los metodos deberian tener menos de 10 lineas.</t>
+  </si>
+  <si>
+    <t>Una clase contiene demasiados metodos o lineas de codigo lo que resulta engorroso al momento de ver el codigo.</t>
+  </si>
+  <si>
+    <t>-Extract Class: hace referencia de que los metodos extensos de una clase puede dividirse en otras clases.                 -Extract Subclass: Hace referencia de que la clase extensa se puede implementar de distintas maneras.         -Extract Interface: Hace referencia a una lista de metodos que poseera la clase.</t>
   </si>
 </sst>
 </file>
@@ -96,19 +108,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001782D-0BB8-4B33-B08D-82D74B02D928}">
-  <dimension ref="B2:G4"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,17 +458,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -461,30 +479,119 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+    </row>
+    <row r="5" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/RefactoringExelMoya.xlsx
+++ b/RefactoringExelMoya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Moya\Documents\Luis Angel\Espol\Septimo semestre\Diseño de Software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{37BCC6DF-47A8-41A1-A0C5-2FA28D938B1D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A7C657FC-7AEF-4318-8444-4D83AA360EC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{122B9872-7810-4D28-B032-B99758B7FF82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Long Method</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>Columna6</t>
+  </si>
+  <si>
+    <t>Clase de Datos</t>
+  </si>
+  <si>
+    <t>Ocurre cuando una clase unicamente contiene atributos publicos junto a sus metodos de acceso a dichos campos.</t>
+  </si>
+  <si>
+    <t>- Se debera encapsular los campos de la clase haciendo privado a los atributos y agregando metodos de acceso a dichos atributos.                                                                        - Dependiendo de las funcionalidades de cada clase se puede aplicar Move Method y Extract Method para establecer la funcionalidad de cada clase.                                                                                       -Si se desea que los atributos no cambien se debe de eliminar los metodos de acceso y estos unicamente cambiaran al ser instanciados.</t>
   </si>
 </sst>
 </file>
@@ -359,63 +368,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -536,25 +529,41 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -571,15 +580,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4A655B1-D14C-401F-AEEA-E4629DD8A28D}" name="Tabla1" displayName="Tabla1" ref="B2:G16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4A655B1-D14C-401F-AEEA-E4629DD8A28D}" name="Tabla1" displayName="Tabla1" ref="B2:G16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B2:G16" xr:uid="{A353535F-3A55-4AAE-B5D2-9EC2A734294A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A108CF69-FC23-45B6-8481-40546EB6AE1A}" name="Columna1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{79BA20ED-2427-44B4-B538-FF27A975A335}" name="Columna2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D0BACB97-D08D-4087-B1EB-6733B10D343A}" name="Columna3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F86C6687-E4AC-4264-9907-62EB9FF7B20F}" name="Columna4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{231770CD-AE49-4C5E-9798-F44E2719F679}" name="Columna5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{949C35AE-7AAD-4CA6-82FB-EA38882547D7}" name="Columna6" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A108CF69-FC23-45B6-8481-40546EB6AE1A}" name="Columna1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{79BA20ED-2427-44B4-B538-FF27A975A335}" name="Columna2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D0BACB97-D08D-4087-B1EB-6733B10D343A}" name="Columna3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F86C6687-E4AC-4264-9907-62EB9FF7B20F}" name="Columna4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{231770CD-AE49-4C5E-9798-F44E2719F679}" name="Columna5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{949C35AE-7AAD-4CA6-82FB-EA38882547D7}" name="Columna6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -884,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001782D-0BB8-4B33-B08D-82D74B02D928}">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,38 +908,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
@@ -943,11 +952,11 @@
       <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -956,13 +965,13 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -975,14 +984,14 @@
         <v>8</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -995,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1014,13 +1023,13 @@
         <v>31</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1033,13 +1042,13 @@
         <v>32</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1052,13 +1061,13 @@
         <v>36</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1071,13 +1080,13 @@
         <v>40</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1090,13 +1099,13 @@
         <v>42</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1109,53 +1118,61 @@
         <v>45</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
+    <row r="13" spans="2:9" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/RefactoringExelMoya.xlsx
+++ b/RefactoringExelMoya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Moya\Documents\Luis Angel\Espol\Septimo semestre\Diseño de Software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A7C657FC-7AEF-4318-8444-4D83AA360EC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{37E11F89-07B6-45F4-BEAC-23DE8C6152DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{122B9872-7810-4D28-B032-B99758B7FF82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Long Method</t>
   </si>
@@ -42,12 +42,6 @@
     <t>TECNICA DE REFACTORIZACIÓN</t>
   </si>
   <si>
-    <t>Español</t>
-  </si>
-  <si>
-    <t>Ingles</t>
-  </si>
-  <si>
     <t>BIBLIOGRAFIA</t>
   </si>
   <si>
@@ -171,24 +165,6 @@
     <t>Codigo Duplicado</t>
   </si>
   <si>
-    <t>Columna1</t>
-  </si>
-  <si>
-    <t>Columna2</t>
-  </si>
-  <si>
-    <t>Columna3</t>
-  </si>
-  <si>
-    <t>Columna4</t>
-  </si>
-  <si>
-    <t>Columna5</t>
-  </si>
-  <si>
-    <t>Columna6</t>
-  </si>
-  <si>
     <t>Clase de Datos</t>
   </si>
   <si>
@@ -196,6 +172,33 @@
   </si>
   <si>
     <t>- Se debera encapsular los campos de la clase haciendo privado a los atributos y agregando metodos de acceso a dichos atributos.                                                                        - Dependiendo de las funcionalidades de cada clase se puede aplicar Move Method y Extract Method para establecer la funcionalidad de cada clase.                                                                                       -Si se desea que los atributos no cambien se debe de eliminar los metodos de acceso y estos unicamente cambiaran al ser instanciados.</t>
+  </si>
+  <si>
+    <t>Intimidad inapropiada</t>
+  </si>
+  <si>
+    <t>Ocurre cuando un metodo utiliza los datos de otro metodo mas que los propios.</t>
+  </si>
+  <si>
+    <t>- EL metodo de otra clase que es mayormente utilizado se tendra que mover al nuestra clase.                                - Cuando se utiliza funciones de otras clases, se tendrá que tomar la clase la cual contiene el metodo mas utilizado por nuestro clase y agregar el resto de funcionalidades a dicha clase haciendo extraccion de metodo.</t>
+  </si>
+  <si>
+    <t>Envidia de caracteristicas</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/MrinalBhattacaharya/code-smells-52370759</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ocurre cuando una clase utiliza metodos o atibutos internos de otra clase.</t>
+  </si>
+  <si>
+    <t>- El metodo deberia implementar dicho metodo para que sea propio. (Move Method)                                                           - El metodo utilizado por ambas clases se deberia implementar en una clase externa (Extract Class).                                  - Si ambas clases comparten metodos lo mas recomendable es crear una clase padre con dicho metodo.</t>
+  </si>
+  <si>
+    <t>http://siloracle.blogspot.com/2014/11/code-smells-inappropriate-intimacy-with.html</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -312,46 +315,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -387,18 +355,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -580,15 +536,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4A655B1-D14C-401F-AEEA-E4629DD8A28D}" name="Tabla1" displayName="Tabla1" ref="B2:G16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="B2:G16" xr:uid="{A353535F-3A55-4AAE-B5D2-9EC2A734294A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4A655B1-D14C-401F-AEEA-E4629DD8A28D}" name="Tabla1" displayName="Tabla1" ref="B4:G16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="B4:G16" xr:uid="{A353535F-3A55-4AAE-B5D2-9EC2A734294A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A108CF69-FC23-45B6-8481-40546EB6AE1A}" name="Columna1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{79BA20ED-2427-44B4-B538-FF27A975A335}" name="Columna2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D0BACB97-D08D-4087-B1EB-6733B10D343A}" name="Columna3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{F86C6687-E4AC-4264-9907-62EB9FF7B20F}" name="Columna4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{231770CD-AE49-4C5E-9798-F44E2719F679}" name="Columna5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{949C35AE-7AAD-4CA6-82FB-EA38882547D7}" name="Columna6" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A108CF69-FC23-45B6-8481-40546EB6AE1A}" name="NOMBRE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{79BA20ED-2427-44B4-B538-FF27A975A335}" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D0BACB97-D08D-4087-B1EB-6733B10D343A}" name="DESCRIPCIÓN" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F86C6687-E4AC-4264-9907-62EB9FF7B20F}" name="TECNICA DE REFACTORIZACIÓN" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{231770CD-AE49-4C5E-9798-F44E2719F679}" name="ENLACE GIT" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{949C35AE-7AAD-4CA6-82FB-EA38882547D7}" name="BIBLIOGRAFIA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -891,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001782D-0BB8-4B33-B08D-82D74B02D928}">
-  <dimension ref="B1:I16"/>
+  <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,66 +863,38 @@
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="F4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -978,205 +906,221 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:9" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
+    <row r="14" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/RefactoringExelMoya.xlsx
+++ b/RefactoringExelMoya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Moya\Documents\Luis Angel\Espol\Septimo semestre\Diseño de Software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{37E11F89-07B6-45F4-BEAC-23DE8C6152DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99C9C9F5-9949-4166-9246-263FF69397DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{122B9872-7810-4D28-B032-B99758B7FF82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Long Method</t>
   </si>
@@ -199,16 +199,36 @@
   </si>
   <si>
     <t>http://siloracle.blogspot.com/2014/11/code-smells-inappropriate-intimacy-with.html</t>
+  </si>
+  <si>
+    <t>Cirugia de escopeta</t>
+  </si>
+  <si>
+    <t>Ocurre cuando se quiere realizar una pequeña modificacion en una clase pero producto de ese cambio se tiene que cambiar otras clases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Un metodo deberia estar implementado en su propia clase, si ese no es el caso procurar utilizar un metodo de una clase padre.                        - Cuando una clase no hace mucho es mejor unirla con otra clase (Inline Class) </t>
+  </si>
+  <si>
+    <t>http://javaonfly.blogspot.com/2016/09/code-smell-and-shotgun-surgery.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -316,10 +336,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -360,8 +381,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
@@ -850,7 +875,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,29 +1128,40 @@
         <v>56</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="14" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+    <row r="16" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:G3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G15" r:id="rId1" xr:uid="{8A3A71E8-E8DC-4D7D-BE7F-A202053E91AA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/RefactoringExelMoya.xlsx
+++ b/RefactoringExelMoya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Moya\Documents\Luis Angel\Espol\Septimo semestre\Diseño de Software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99C9C9F5-9949-4166-9246-263FF69397DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{43FDDB67-CB32-417C-AC86-F3431C7C0FFE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{122B9872-7810-4D28-B032-B99758B7FF82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>Long Method</t>
   </si>
@@ -102,9 +102,6 @@
     <t xml:space="preserve">Se produce cuando informacion importante en el programa es declarada con un tipo de dato primitivo. </t>
   </si>
   <si>
-    <t>http://trainedchimpanzees.blogspot.com/2010/08/code-smells-obsesion-primitiva.html</t>
-  </si>
-  <si>
     <t>ENLACE GIT</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>-Extract Class: hace referencia de que los metodos extensos de una clase puede dividirse en otras clases.          - Introduce Parameter Object: Si se tiene parametros los cuales comparten el tipos de datos se tendra que utilizar una clase que las contenga.                                                    - Preserve Whole Object: Hace referencia a pasar un objeto como parametro de un metodo.</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Data_Clump_(Code_Smell)</t>
-  </si>
-  <si>
     <t>Declaraciones de cambio</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>- Si se tiene codigo repetido lo mejor es ese codigo hacerlo una funcion para poder llamarla las veces que queramos.       - Si dos clases tienen el mismo metodo lo recomendable es colocar ese metodo en una clase padre.                                     - Si dentro de los condicionales se repite el mismo metodo se tendra que colocarlo en la parte externa de dichos condicionales.</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Duplicate_code</t>
-  </si>
-  <si>
     <t>Codigo Duplicado</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
     <t>Envidia de caracteristicas</t>
   </si>
   <si>
-    <t>https://www.slideshare.net/MrinalBhattacaharya/code-smells-52370759</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -198,9 +186,6 @@
     <t>- El metodo deberia implementar dicho metodo para que sea propio. (Move Method)                                                           - El metodo utilizado por ambas clases se deberia implementar en una clase externa (Extract Class).                                  - Si ambas clases comparten metodos lo mas recomendable es crear una clase padre con dicho metodo.</t>
   </si>
   <si>
-    <t>http://siloracle.blogspot.com/2014/11/code-smells-inappropriate-intimacy-with.html</t>
-  </si>
-  <si>
     <t>Cirugia de escopeta</t>
   </si>
   <si>
@@ -210,14 +195,245 @@
     <t xml:space="preserve">- Un metodo deberia estar implementado en su propia clase, si ese no es el caso procurar utilizar un metodo de una clase padre.                        - Cuando una clase no hace mucho es mejor unirla con otra clase (Inline Class) </t>
   </si>
   <si>
-    <t>http://javaonfly.blogspot.com/2016/09/code-smell-and-shotgun-surgery.html</t>
+    <t>https://github.com/l-AngelMoya/Refactoring/tree/master/Comments</t>
+  </si>
+  <si>
+    <t>https://github.com/l-AngelMoya/Refactoring/tree/master/DataClass</t>
+  </si>
+  <si>
+    <t>https://github.com/l-AngelMoya/Refactoring/tree/master/DataClumps</t>
+  </si>
+  <si>
+    <t>https://github.com/l-AngelMoya/Refactoring/tree/master/Duplicate%20code</t>
+  </si>
+  <si>
+    <t>https://github.com/l-AngelMoya/Refactoring/tree/master/FeatureEnvy</t>
+  </si>
+  <si>
+    <t>https://github.com/l-AngelMoya/Refactoring/tree/master/Inappropriate%20Intimacy</t>
+  </si>
+  <si>
+    <t>https://github.com/l-AngelMoya/Refactoring/tree/master/LongMethod</t>
+  </si>
+  <si>
+    <t>https://github.com/l-AngelMoya/Refactoring/tree/master/PrimitiveObsession</t>
+  </si>
+  <si>
+    <t>https://github.com/l-AngelMoya/Refactoring/tree/master/RefusedBequest</t>
+  </si>
+  <si>
+    <t>https://github.com/l-AngelMoya/Refactoring/tree/master/SwitchStatements</t>
+  </si>
+  <si>
+    <t>https://github.com/l-AngelMoya/Refactoring/tree/master/ShotgunSurgery</t>
+  </si>
+  <si>
+    <t>https://github.com/l-AngelMoya/Refactoring/tree/master/LargeClass</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Juan Pablo Olguin, L. J. (25 de Agosto de 2010). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>trainedchimpanzees.blogspot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Obtenido de http://trainedchimpanzees.blogspot.com/2010/08/code-smells-obsesion-primitiva.html</t>
+    </r>
+  </si>
+  <si>
+    <t>REFERENCIAS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wikipedia. (23 de Marzo de 2017). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wikipedia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Obtenido de https://en.wikipedia.org/wiki/Data_Clump_(Code_Smell)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wikipedia. (20 de Marzo de 2018). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wikipedia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Obtenido de https://en.wikipedia.org/wiki/Duplicate_code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anonimo. (13 de Septiembre de 2016). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>javaonfly.blogspot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Obtenido de http://javaonfly.blogspot.com/2016/09/code-smell-and-shotgun-surgery.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bhattacaharya, M. (3 de Septiembre de 2015). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>slideshare.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Obtenido de https://www.slideshare.net/MrinalBhattacaharya/code-smells-52370759</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BilgeKağan. (25 de Noviembre de 2014). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>siloracle.blogspot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Obtenido de http://siloracle.blogspot.com/2014/11/code-smells-inappropriate-intimacy-with.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Columna3</t>
+  </si>
+  <si>
+    <t>Columna4</t>
+  </si>
+  <si>
+    <t>Columna5</t>
+  </si>
+  <si>
+    <t>Columna6</t>
+  </si>
+  <si>
+    <t>Columna7</t>
+  </si>
+  <si>
+    <t>Columna8</t>
+  </si>
+  <si>
+    <t>Columna9</t>
+  </si>
+  <si>
+    <t>Columna10</t>
+  </si>
+  <si>
+    <t>Columna11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Juan Pablo Olguin, 2010) [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Wikipedia, Wikipedia, 2017) [2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Wikipedia, Wikipedia, 2018) [3]</t>
+  </si>
+  <si>
+    <t>(Bhattacaharya, 2015) [5]</t>
+  </si>
+  <si>
+    <t>(BilgeKağan, 2014) [6]</t>
+  </si>
+  <si>
+    <t>(Anonimo, 2016) [4]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,9 +442,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,7 +473,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -288,19 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -336,11 +554,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -366,37 +583,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -406,6 +628,25 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="5" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -561,17 +802,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4A655B1-D14C-401F-AEEA-E4629DD8A28D}" name="Tabla1" displayName="Tabla1" ref="B4:G16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4A655B1-D14C-401F-AEEA-E4629DD8A28D}" name="Tabla1" displayName="Tabla1" ref="B4:G16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B4:G16" xr:uid="{A353535F-3A55-4AAE-B5D2-9EC2A734294A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A108CF69-FC23-45B6-8481-40546EB6AE1A}" name="NOMBRE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{79BA20ED-2427-44B4-B538-FF27A975A335}" name="Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D0BACB97-D08D-4087-B1EB-6733B10D343A}" name="DESCRIPCIÓN" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{F86C6687-E4AC-4264-9907-62EB9FF7B20F}" name="TECNICA DE REFACTORIZACIÓN" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{231770CD-AE49-4C5E-9798-F44E2719F679}" name="ENLACE GIT" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A108CF69-FC23-45B6-8481-40546EB6AE1A}" name="NOMBRE" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{79BA20ED-2427-44B4-B538-FF27A975A335}" name="Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D0BACB97-D08D-4087-B1EB-6733B10D343A}" name="DESCRIPCIÓN" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F86C6687-E4AC-4264-9907-62EB9FF7B20F}" name="TECNICA DE REFACTORIZACIÓN" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{231770CD-AE49-4C5E-9798-F44E2719F679}" name="ENLACE GIT" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{949C35AE-7AAD-4CA6-82FB-EA38882547D7}" name="BIBLIOGRAFIA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{898973D4-94F3-4284-981D-07A0273729F7}" name="Tabla2" displayName="Tabla2" ref="B20:L32" totalsRowShown="0">
+  <autoFilter ref="B20:L32" xr:uid="{B66936E2-CCFF-4675-9332-E682D43B9089}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{85CD1AFF-1CA8-4815-BC47-C2F42E685276}" name="Columna1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{28CA4EAE-C391-4492-B14D-7F6442A889D8}" name="Columna2"/>
+    <tableColumn id="3" xr3:uid="{A08D15A6-F77F-4914-B04E-F3A62CA86245}" name="Columna3"/>
+    <tableColumn id="4" xr3:uid="{C81AB731-DEEF-4EA9-B112-B5B11EDE09B4}" name="Columna4"/>
+    <tableColumn id="5" xr3:uid="{25E7EF01-7B60-4A48-9776-DE4DEFC330E4}" name="Columna5"/>
+    <tableColumn id="6" xr3:uid="{11B9B85F-6F7A-4825-9320-18F114EC0383}" name="Columna6"/>
+    <tableColumn id="7" xr3:uid="{FA006210-F7B2-43B0-B765-1142CE0F6C73}" name="Columna7"/>
+    <tableColumn id="8" xr3:uid="{91423CC2-86F6-4D28-A6E5-291134E1AC10}" name="Columna8"/>
+    <tableColumn id="9" xr3:uid="{619FCD2F-7A3A-43E6-97FA-9AC9D95C8AFB}" name="Columna9"/>
+    <tableColumn id="10" xr3:uid="{2C600025-C30F-4C36-A756-5D68D38FF558}" name="Columna10"/>
+    <tableColumn id="11" xr3:uid="{3F846357-4EF2-4BF2-8721-F89BD59F2283}" name="Columna11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -872,53 +1133,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001782D-0BB8-4B33-B08D-82D74B02D928}">
-  <dimension ref="B2:I16"/>
+  <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="2"/>
@@ -936,8 +1198,10 @@
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2"/>
@@ -956,8 +1220,10 @@
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2"/>
@@ -973,182 +1239,314 @@
         <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:9" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1156,12 +1554,19 @@
     <mergeCell ref="B3:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G15" r:id="rId1" xr:uid="{8A3A71E8-E8DC-4D7D-BE7F-A202053E91AA}"/>
+    <hyperlink ref="G15" r:id="rId1" display="http://siloracle.blogspot.com/2014/11/code-smells-inappropriate-intimacy-with.html" xr:uid="{8A3A71E8-E8DC-4D7D-BE7F-A202053E91AA}"/>
+    <hyperlink ref="G7" r:id="rId2" display="http://trainedchimpanzees.blogspot.com/2010/08/code-smells-obsesion-primitiva.html" xr:uid="{F64C00DA-EF17-4C8A-878C-16AA93BEEFA4}"/>
+    <hyperlink ref="G8" r:id="rId3" display="https://en.wikipedia.org/wiki/Data_Clump_(Code_Smell)" xr:uid="{E2D72F5E-7EA4-402A-B550-2475A9C86D03}"/>
+    <hyperlink ref="G12" r:id="rId4" display="https://en.wikipedia.org/wiki/Duplicate_code" xr:uid="{0E6A0A0D-C977-435D-A847-74F52BF527B2}"/>
+    <hyperlink ref="G14" r:id="rId5" display="https://www.slideshare.net/MrinalBhattacaharya/code-smells-52370759" xr:uid="{5C1DDE7D-C07E-4DCF-A22B-531089DCE1BE}"/>
+    <hyperlink ref="G16" r:id="rId6" display="http://javaonfly.blogspot.com/2016/09/code-smell-and-shotgun-surgery.html" xr:uid="{6C8289F2-E681-412A-82A3-F34ABEC3C741}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{0853C668-DF4B-43EB-8939-6AF574436C33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <tableParts count="2">
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>